--- a/clabs/Sorts/sort.xlsx
+++ b/clabs/Sorts/sort.xlsx
@@ -688,7 +688,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1052,34 +1051,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>13.084</c:v>
+                  <c:v>18.084</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50.161000000000001</c:v>
+                  <c:v>76.155000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>105.717</c:v>
+                  <c:v>122.789</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>181.249</c:v>
+                  <c:v>223.22499999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>286.74400000000003</c:v>
+                  <c:v>387.78399999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>356.25400000000002</c:v>
+                  <c:v>402.721</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>575.11</c:v>
+                  <c:v>596.11</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>657.23800000000006</c:v>
+                  <c:v>683.25800000000004</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>770.74199999999996</c:v>
+                  <c:v>803.48099999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1012.509</c:v>
+                  <c:v>1212.509</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3844,8 +3843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W19" sqref="W19"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4063,7 +4062,7 @@
         <v>50000</v>
       </c>
       <c r="B17">
-        <v>13.084</v>
+        <v>18.084</v>
       </c>
       <c r="M17" t="s">
         <v>1</v>
@@ -4074,7 +4073,7 @@
         <v>100000</v>
       </c>
       <c r="B18">
-        <v>50.161000000000001</v>
+        <v>76.155000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -4082,7 +4081,7 @@
         <v>150000</v>
       </c>
       <c r="B19">
-        <v>105.717</v>
+        <v>122.789</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -4090,7 +4089,7 @@
         <v>200000</v>
       </c>
       <c r="B20">
-        <v>181.249</v>
+        <v>223.22499999999999</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -4098,7 +4097,7 @@
         <v>250000</v>
       </c>
       <c r="B21">
-        <v>286.74400000000003</v>
+        <v>387.78399999999999</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -4106,7 +4105,7 @@
         <v>300000</v>
       </c>
       <c r="B22">
-        <v>356.25400000000002</v>
+        <v>402.721</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -4114,7 +4113,7 @@
         <v>350000</v>
       </c>
       <c r="B23">
-        <v>575.11</v>
+        <v>596.11</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -4122,7 +4121,7 @@
         <v>400000</v>
       </c>
       <c r="B24">
-        <v>657.23800000000006</v>
+        <v>683.25800000000004</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -4130,7 +4129,7 @@
         <v>450000</v>
       </c>
       <c r="B25">
-        <v>770.74199999999996</v>
+        <v>803.48099999999999</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -4138,7 +4137,7 @@
         <v>500000</v>
       </c>
       <c r="B26">
-        <v>1012.509</v>
+        <v>1212.509</v>
       </c>
     </row>
   </sheetData>
